--- a/regulus/test/module_test.xlsx
+++ b/regulus/test/module_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -53,47 +53,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Tweet::get_tweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article::get_articles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Currency::get_currencies</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currency::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Tweet::get_tweets</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Article::get_articles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tweet::get_tweets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Article::get_articles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -287,6 +279,10 @@
     <rPh sb="19" eb="21">
       <t>ミマン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rate::get_currencies</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1281,7 +1277,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1307,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1321,14 +1317,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1339,16 +1335,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1359,12 +1355,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="28"/>
       <c r="G5" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1375,14 +1371,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1393,12 +1389,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="28"/>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="19" thickBot="1">
@@ -1409,14 +1405,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1476,14 +1472,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1494,14 +1490,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1509,17 +1505,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1527,17 +1523,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1545,17 +1541,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="19" thickBot="1">
@@ -1566,14 +1562,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/regulus/test/module_test.xlsx
+++ b/regulus/test/module_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -61,72 +61,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Currency::get_currencies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tweet::get_tweets</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Article::get_articles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30期間分の通貨情報を返す</t>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空も含めて30期間分の通貨情報を返す</t>
-    <rPh sb="0" eb="1">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -243,16 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBの通貨情報が不足している</t>
-    <rPh sb="3" eb="7">
-      <t>ツウカジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBに登録されている記事が20件未満</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -283,6 +216,152 @@
   </si>
   <si>
     <t>Rate::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rate::get_moving_average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100期間分のレートの平均値の配列を返す</t>
+    <rPh sb="3" eb="6">
+      <t>キカンブン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのレート情報が不足している</t>
+    <rPh sb="6" eb="8">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100期間分のレート情報を返す</t>
+    <rPh sb="3" eb="5">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウカジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空も含めて100期間分のレート情報を返す</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空も含めて100期間分のレートの平均値の配列を返す</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キカンブン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rate::get_moving_average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rate::get_currencies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rate::get_moving_average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: nil, interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: nil, interval: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'INVALID', interval: 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'USDJPY', interval: -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair: 'INVALID', interval: -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -538,19 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -673,19 +739,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -793,7 +846,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -821,28 +874,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1274,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1302,8 +1362,8 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>29</v>
+      <c r="F2" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1317,14 +1377,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="25"/>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1335,16 +1395,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1358,9 +1418,9 @@
         <v>7</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="28"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1371,14 +1431,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="28" t="s">
-        <v>34</v>
+      <c r="F6" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1389,30 +1449,68 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="19" thickBot="1">
-      <c r="B8" s="16">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="19" thickBot="1">
+      <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="29" t="s">
+      <c r="C10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>21</v>
+      <c r="G10" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1457,8 +1555,8 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>29</v>
+      <c r="F2" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1472,14 +1570,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1490,86 +1588,194 @@
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="21">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="C12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="C13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="19" thickBot="1">
+      <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="21">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="21">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="19" thickBot="1">
-      <c r="B8" s="16">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="20" t="s">
-        <v>28</v>
+      <c r="C14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
